--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\COLLEGE\Algorithms\PuzzlesProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C723FB-C4DC-4BA3-B85A-C2A836CFDF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD6070F-5A4A-447B-BB81-9A4ADE7F0975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{92E57464-F0C5-4BE0-B69D-E68412504E9B}"/>
   </bookViews>
@@ -89,14 +89,14 @@
     <t>BFS ו-DIJKSTRA בדרך כלל יגלו כמות די דומה של צמתים אך BFS יעשה זאת הרבה יותר מהר.</t>
   </si>
   <si>
-    <t>בכל האלגוריתמים הייתה כמות זהה פחות או יותר של מהלכים אל הפתרון. כלומר, הם כולם בסוף מצליחים למצוא את הדרך הקצרה ביותר. היחיד היוצא דופן במובן הזה הוא ה-A* המשובש.</t>
+    <t>בכל האלגוריתמים הייתה כמות זהה של מהלכים אל הפתרון. כלומר, הם כולם בסוף מצליחים למצוא את הדרך הקצרה ביותר. היחיד היוצא דופן במובן הזה הוא ה-A* המשובש.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +119,14 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -167,7 +175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -179,6 +187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114B67B9-BE5A-4396-B7D0-2403493EEE44}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -927,7 +936,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="7" t="s">
         <v>15</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\COLLEGE\Algorithms\PuzzlesProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD6070F-5A4A-447B-BB81-9A4ADE7F0975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2C5E2E-BFA3-4C9C-8B2C-98A9B0B63A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{92E57464-F0C5-4BE0-B69D-E68412504E9B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>BFS</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>בכל האלגוריתמים הייתה כמות זהה של מהלכים אל הפתרון. כלומר, הם כולם בסוף מצליחים למצוא את הדרך הקצרה ביותר. היחיד היוצא דופן במובן הזה הוא ה-A* המשובש.</t>
+  </si>
+  <si>
+    <t>גיט:</t>
+  </si>
+  <si>
+    <t>https://github.com/yehonatan930/AlgorithmsPuzzle</t>
   </si>
 </sst>
 </file>
@@ -175,7 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -188,6 +194,10 @@
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114B67B9-BE5A-4396-B7D0-2403493EEE44}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -950,6 +960,17 @@
         <v>17</v>
       </c>
     </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\COLLEGE\Algorithms\PuzzlesProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2C5E2E-BFA3-4C9C-8B2C-98A9B0B63A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D229189-8F5E-4397-884A-79406FCE2043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{92E57464-F0C5-4BE0-B69D-E68412504E9B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>BFS</t>
   </si>
@@ -86,9 +86,6 @@
     <t>מסקנות:</t>
   </si>
   <si>
-    <t>BFS ו-DIJKSTRA בדרך כלל יגלו כמות די דומה של צמתים אך BFS יעשה זאת הרבה יותר מהר.</t>
-  </si>
-  <si>
     <t>בכל האלגוריתמים הייתה כמות זהה של מהלכים אל הפתרון. כלומר, הם כולם בסוף מצליחים למצוא את הדרך הקצרה ביותר. היחיד היוצא דופן במובן הזה הוא ה-A* המשובש.</t>
   </si>
   <si>
@@ -96,6 +93,15 @@
   </si>
   <si>
     <t>https://github.com/yehonatan930/AlgorithmsPuzzle</t>
+  </si>
+  <si>
+    <t>מנסיונותי לשנות את הפונקציה היוריסטית הלא קבילה - פונקציה יוריסטית ללא חוקיות מייצרת אלגוריתם A* שלוקח הרבה יותר זמן ומגלה הרבה יותר צמתים מכל האלגוריתמים.</t>
+  </si>
+  <si>
+    <t>אפשר לומר בוודאות שA* מנהטן הוא הכי טוב בפער רב כי הוא מחפש בצורה לוגית בעוד ש-BFS ו-DIJKSTRA מחפשים פתרון בצורה רוחבית בגרף.</t>
+  </si>
+  <si>
+    <t>BFS ו-DIJKSTRA בדרך כלל יגלו כמות די דומה של צמתים בגלל שהם מחפשים בצורה רוחבית בגרף, אך BFS יעשה זאת הרבה יותר מהר בגלל שבאלגוריתם זה יש שמירה של אילו קודקודים כבר עובדו ואפשר לדלג עליהם.</t>
   </si>
 </sst>
 </file>
@@ -181,7 +187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -194,7 +200,6 @@
       <alignment horizontal="right" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
@@ -611,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114B67B9-BE5A-4396-B7D0-2403493EEE44}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -952,24 +957,31 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\COLLEGE\Algorithms\PuzzlesProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D229189-8F5E-4397-884A-79406FCE2043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89835AD-3FF6-4C6E-9D3B-285136DABFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{92E57464-F0C5-4BE0-B69D-E68412504E9B}"/>
   </bookViews>
@@ -101,7 +101,7 @@
     <t>אפשר לומר בוודאות שA* מנהטן הוא הכי טוב בפער רב כי הוא מחפש בצורה לוגית בעוד ש-BFS ו-DIJKSTRA מחפשים פתרון בצורה רוחבית בגרף.</t>
   </si>
   <si>
-    <t>BFS ו-DIJKSTRA בדרך כלל יגלו כמות די דומה של צמתים בגלל שהם מחפשים בצורה רוחבית בגרף, אך BFS יעשה זאת הרבה יותר מהר בגלל שבאלגוריתם זה יש שמירה של אילו קודקודים כבר עובדו ואפשר לדלג עליהם.</t>
+    <t>BFS ו-DIJKSTRA בדרך כלל יגלו כמות די דומה של צמתים בגלל שהם מחפשים בצורה רוחבית בגרף, אך DIJKSTRA יעשה זאת יותר לאט בשל המיון שמתבצע בו בכל צומת חדשה.</t>
   </si>
 </sst>
 </file>
@@ -619,7 +619,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
